--- a/natmiOut/OldD4/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>74.9390345767488</v>
+        <v>96.60110933333333</v>
       </c>
       <c r="H2">
-        <v>74.9390345767488</v>
+        <v>289.803328</v>
       </c>
       <c r="I2">
-        <v>0.1312137404221981</v>
+        <v>0.1481994495772009</v>
       </c>
       <c r="J2">
-        <v>0.1312137404221981</v>
+        <v>0.1555774554226776</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.44378936923853</v>
+        <v>0.919382</v>
       </c>
       <c r="N2">
-        <v>2.44378936923853</v>
+        <v>2.758146</v>
       </c>
       <c r="O2">
-        <v>0.01705382400208084</v>
+        <v>0.005737395776689386</v>
       </c>
       <c r="P2">
-        <v>0.01705382400208084</v>
+        <v>0.005740724152602041</v>
       </c>
       <c r="Q2">
-        <v>183.1352160396573</v>
+        <v>88.81332110109867</v>
       </c>
       <c r="R2">
-        <v>183.1352160396573</v>
+        <v>799.3198899098879</v>
       </c>
       <c r="S2">
-        <v>0.002237696035814887</v>
+        <v>0.0008502788961119237</v>
       </c>
       <c r="T2">
-        <v>0.002237696035814887</v>
+        <v>0.0008931272559453325</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>74.9390345767488</v>
+        <v>96.60110933333333</v>
       </c>
       <c r="H3">
-        <v>74.9390345767488</v>
+        <v>289.803328</v>
       </c>
       <c r="I3">
-        <v>0.1312137404221981</v>
+        <v>0.1481994495772009</v>
       </c>
       <c r="J3">
-        <v>0.1312137404221981</v>
+        <v>0.1555774554226776</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>51.2201576610693</v>
+        <v>2.531134333333334</v>
       </c>
       <c r="N3">
-        <v>51.2201576610693</v>
+        <v>7.593403</v>
       </c>
       <c r="O3">
-        <v>0.3574365144173148</v>
+        <v>0.01579552289940435</v>
       </c>
       <c r="P3">
-        <v>0.3574365144173148</v>
+        <v>0.01580468619229758</v>
       </c>
       <c r="Q3">
-        <v>3838.389165989397</v>
+        <v>244.5103844716871</v>
       </c>
       <c r="R3">
-        <v>3838.389165989397</v>
+        <v>2200.593460245184</v>
       </c>
       <c r="S3">
-        <v>0.04690058202016883</v>
+        <v>0.002340887799475797</v>
       </c>
       <c r="T3">
-        <v>0.04690058202016883</v>
+        <v>0.002458852861551584</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>74.9390345767488</v>
+        <v>96.60110933333333</v>
       </c>
       <c r="H4">
-        <v>74.9390345767488</v>
+        <v>289.803328</v>
       </c>
       <c r="I4">
-        <v>0.1312137404221981</v>
+        <v>0.1481994495772009</v>
       </c>
       <c r="J4">
-        <v>0.1312137404221981</v>
+        <v>0.1555774554226776</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>89.4103574859068</v>
+        <v>65.03016100000001</v>
       </c>
       <c r="N4">
-        <v>89.4103574859068</v>
+        <v>195.090483</v>
       </c>
       <c r="O4">
-        <v>0.6239443217657096</v>
+        <v>0.4058201825561418</v>
       </c>
       <c r="P4">
-        <v>0.6239443217657096</v>
+        <v>0.4060556068101174</v>
       </c>
       <c r="Q4">
-        <v>6700.32587115584</v>
+        <v>6281.985692725269</v>
       </c>
       <c r="R4">
-        <v>6700.32587115584</v>
+        <v>56537.87123452742</v>
       </c>
       <c r="S4">
-        <v>0.08187006827407028</v>
+        <v>0.06014232768213939</v>
       </c>
       <c r="T4">
-        <v>0.08187006827407028</v>
+        <v>0.06317309806762933</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>74.9390345767488</v>
+        <v>96.60110933333333</v>
       </c>
       <c r="H5">
-        <v>74.9390345767488</v>
+        <v>289.803328</v>
       </c>
       <c r="I5">
-        <v>0.1312137404221981</v>
+        <v>0.1481994495772009</v>
       </c>
       <c r="J5">
-        <v>0.1312137404221981</v>
+        <v>0.1555774554226776</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.224311028331199</v>
+        <v>91.48438500000002</v>
       </c>
       <c r="N5">
-        <v>0.224311028331199</v>
+        <v>274.453155</v>
       </c>
       <c r="O5">
-        <v>0.00156533981489493</v>
+        <v>0.5709075489100568</v>
       </c>
       <c r="P5">
-        <v>0.00156533981489493</v>
+        <v>0.5712387435858478</v>
       </c>
       <c r="Q5">
-        <v>16.8096519080578</v>
+        <v>8837.493077677762</v>
       </c>
       <c r="R5">
-        <v>16.8096519080578</v>
+        <v>79537.43769909984</v>
       </c>
       <c r="S5">
-        <v>0.000205394092144155</v>
+        <v>0.08460818450793929</v>
       </c>
       <c r="T5">
-        <v>0.000205394092144155</v>
+        <v>0.08887187016593358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>208.119315690732</v>
+        <v>96.60110933333333</v>
       </c>
       <c r="H6">
-        <v>208.119315690732</v>
+        <v>289.803328</v>
       </c>
       <c r="I6">
-        <v>0.364404399124219</v>
+        <v>0.1481994495772009</v>
       </c>
       <c r="J6">
-        <v>0.364404399124219</v>
+        <v>0.1555774554226776</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.44378936923853</v>
+        <v>0.27872</v>
       </c>
       <c r="N6">
-        <v>2.44378936923853</v>
+        <v>0.55744</v>
       </c>
       <c r="O6">
-        <v>0.01705382400208084</v>
+        <v>0.001739349857707531</v>
       </c>
       <c r="P6">
-        <v>0.01705382400208084</v>
+        <v>0.001160239259135115</v>
       </c>
       <c r="Q6">
-        <v>508.5997712182085</v>
+        <v>26.92466119338667</v>
       </c>
       <c r="R6">
-        <v>508.5997712182085</v>
+        <v>161.54796716032</v>
       </c>
       <c r="S6">
-        <v>0.006214488488248453</v>
+        <v>0.0002577706915344388</v>
       </c>
       <c r="T6">
-        <v>0.006214488488248453</v>
+        <v>0.0001805070716177339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>208.119315690732</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H7">
-        <v>208.119315690732</v>
+        <v>666.194488</v>
       </c>
       <c r="I7">
-        <v>0.364404399124219</v>
+        <v>0.340678132008771</v>
       </c>
       <c r="J7">
-        <v>0.364404399124219</v>
+        <v>0.3576385543082981</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>51.2201576610693</v>
+        <v>0.919382</v>
       </c>
       <c r="N7">
-        <v>51.2201576610693</v>
+        <v>2.758146</v>
       </c>
       <c r="O7">
-        <v>0.3574365144173148</v>
+        <v>0.005737395776689386</v>
       </c>
       <c r="P7">
-        <v>0.3574365144173148</v>
+        <v>0.005740724152602041</v>
       </c>
       <c r="Q7">
-        <v>10659.90416199315</v>
+        <v>204.1624069221387</v>
       </c>
       <c r="R7">
-        <v>10659.90416199315</v>
+        <v>1837.461662299248</v>
       </c>
       <c r="S7">
-        <v>0.1302514382612969</v>
+        <v>0.001954605275797551</v>
       </c>
       <c r="T7">
-        <v>0.1302514382612969</v>
+        <v>0.002053104286619323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>208.119315690732</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H8">
-        <v>208.119315690732</v>
+        <v>666.194488</v>
       </c>
       <c r="I8">
-        <v>0.364404399124219</v>
+        <v>0.340678132008771</v>
       </c>
       <c r="J8">
-        <v>0.364404399124219</v>
+        <v>0.3576385543082981</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.4103574859068</v>
+        <v>2.531134333333334</v>
       </c>
       <c r="N8">
-        <v>89.4103574859068</v>
+        <v>7.593403</v>
       </c>
       <c r="O8">
-        <v>0.6239443217657096</v>
+        <v>0.01579552289940435</v>
       </c>
       <c r="P8">
-        <v>0.6239443217657096</v>
+        <v>0.01580468619229758</v>
       </c>
       <c r="Q8">
-        <v>18608.02241563064</v>
+        <v>562.0759137514071</v>
       </c>
       <c r="R8">
-        <v>18608.02241563064</v>
+        <v>5058.683223762664</v>
       </c>
       <c r="S8">
-        <v>0.2273680556600018</v>
+        <v>0.005381189235470841</v>
       </c>
       <c r="T8">
-        <v>0.2273680556600018</v>
+        <v>0.005652365121109626</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>208.119315690732</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H9">
-        <v>208.119315690732</v>
+        <v>666.194488</v>
       </c>
       <c r="I9">
-        <v>0.364404399124219</v>
+        <v>0.340678132008771</v>
       </c>
       <c r="J9">
-        <v>0.364404399124219</v>
+        <v>0.3576385543082981</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.224311028331199</v>
+        <v>65.03016100000001</v>
       </c>
       <c r="N9">
-        <v>0.224311028331199</v>
+        <v>195.090483</v>
       </c>
       <c r="O9">
-        <v>0.00156533981489493</v>
+        <v>0.4058201825561418</v>
       </c>
       <c r="P9">
-        <v>0.00156533981489493</v>
+        <v>0.4060556068101174</v>
       </c>
       <c r="Q9">
-        <v>46.68345771817354</v>
+        <v>14440.91160398419</v>
       </c>
       <c r="R9">
-        <v>46.68345771817354</v>
+        <v>129968.2044358577</v>
       </c>
       <c r="S9">
-        <v>0.000570416714672003</v>
+        <v>0.1382540617246848</v>
       </c>
       <c r="T9">
-        <v>0.000570416714672003</v>
+        <v>0.1452211401883491</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.29036140950829</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H10">
-        <v>85.29036140950829</v>
+        <v>666.194488</v>
       </c>
       <c r="I10">
-        <v>0.1493382908615022</v>
+        <v>0.340678132008771</v>
       </c>
       <c r="J10">
-        <v>0.1493382908615022</v>
+        <v>0.3576385543082981</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.44378936923853</v>
+        <v>91.48438500000002</v>
       </c>
       <c r="N10">
-        <v>2.44378936923853</v>
+        <v>274.453155</v>
       </c>
       <c r="O10">
-        <v>0.01705382400208084</v>
+        <v>0.5709075489100568</v>
       </c>
       <c r="P10">
-        <v>0.01705382400208084</v>
+        <v>0.5712387435858478</v>
       </c>
       <c r="Q10">
-        <v>208.4316785110686</v>
+        <v>20315.46434168996</v>
       </c>
       <c r="R10">
-        <v>208.4316785110686</v>
+        <v>182839.1790752097</v>
       </c>
       <c r="S10">
-        <v>0.002546788929123617</v>
+        <v>0.1944957173123842</v>
       </c>
       <c r="T10">
-        <v>0.002546788929123617</v>
+        <v>0.2042969984209312</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.29036140950829</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H11">
-        <v>85.29036140950829</v>
+        <v>666.194488</v>
       </c>
       <c r="I11">
-        <v>0.1493382908615022</v>
+        <v>0.340678132008771</v>
       </c>
       <c r="J11">
-        <v>0.1493382908615022</v>
+        <v>0.3576385543082981</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>51.2201576610693</v>
+        <v>0.27872</v>
       </c>
       <c r="N11">
-        <v>51.2201576610693</v>
+        <v>0.55744</v>
       </c>
       <c r="O11">
-        <v>0.3574365144173148</v>
+        <v>0.001739349857707531</v>
       </c>
       <c r="P11">
-        <v>0.3574365144173148</v>
+        <v>0.001160239259135115</v>
       </c>
       <c r="Q11">
-        <v>4368.585758364596</v>
+        <v>61.89390923178667</v>
       </c>
       <c r="R11">
-        <v>4368.585758364596</v>
+        <v>371.36345539072</v>
       </c>
       <c r="S11">
-        <v>0.0533789581545745</v>
+        <v>0.0005925584604335233</v>
       </c>
       <c r="T11">
-        <v>0.0533789581545745</v>
+        <v>0.0004149462912888135</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.29036140950829</v>
+        <v>86.95694233333334</v>
       </c>
       <c r="H12">
-        <v>85.29036140950829</v>
+        <v>260.870827</v>
       </c>
       <c r="I12">
-        <v>0.1493382908615022</v>
+        <v>0.1334039648162674</v>
       </c>
       <c r="J12">
-        <v>0.1493382908615022</v>
+        <v>0.1400453878109693</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>89.4103574859068</v>
+        <v>0.919382</v>
       </c>
       <c r="N12">
-        <v>89.4103574859068</v>
+        <v>2.758146</v>
       </c>
       <c r="O12">
-        <v>0.6239443217657096</v>
+        <v>0.005737395776689386</v>
       </c>
       <c r="P12">
-        <v>0.6239443217657096</v>
+        <v>0.005740724152602041</v>
       </c>
       <c r="Q12">
-        <v>7625.841703726326</v>
+        <v>79.94664755630468</v>
       </c>
       <c r="R12">
-        <v>7625.841703726326</v>
+        <v>719.519828006742</v>
       </c>
       <c r="S12">
-        <v>0.09317877860523029</v>
+        <v>0.0007653913443304719</v>
       </c>
       <c r="T12">
-        <v>0.09317877860523029</v>
+        <v>0.0008039619402669511</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.29036140950829</v>
+        <v>86.95694233333334</v>
       </c>
       <c r="H13">
-        <v>85.29036140950829</v>
+        <v>260.870827</v>
       </c>
       <c r="I13">
-        <v>0.1493382908615022</v>
+        <v>0.1334039648162674</v>
       </c>
       <c r="J13">
-        <v>0.1493382908615022</v>
+        <v>0.1400453878109693</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.224311028331199</v>
+        <v>2.531134333333334</v>
       </c>
       <c r="N13">
-        <v>0.224311028331199</v>
+        <v>7.593403</v>
       </c>
       <c r="O13">
-        <v>0.00156533981489493</v>
+        <v>0.01579552289940435</v>
       </c>
       <c r="P13">
-        <v>0.00156533981489493</v>
+        <v>0.01580468619229758</v>
       </c>
       <c r="Q13">
-        <v>19.13156867450642</v>
+        <v>220.0997022615868</v>
       </c>
       <c r="R13">
-        <v>19.13156867450642</v>
+        <v>1980.897320354281</v>
       </c>
       <c r="S13">
-        <v>0.0002337651725738691</v>
+        <v>0.002107185381126684</v>
       </c>
       <c r="T13">
-        <v>0.0002337651725738691</v>
+        <v>0.002213373407030986</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>131.914372655243</v>
+        <v>86.95694233333334</v>
       </c>
       <c r="H14">
-        <v>131.914372655243</v>
+        <v>260.870827</v>
       </c>
       <c r="I14">
-        <v>0.2309741291611541</v>
+        <v>0.1334039648162674</v>
       </c>
       <c r="J14">
-        <v>0.2309741291611541</v>
+        <v>0.1400453878109693</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.44378936923853</v>
+        <v>65.03016100000001</v>
       </c>
       <c r="N14">
-        <v>2.44378936923853</v>
+        <v>195.090483</v>
       </c>
       <c r="O14">
-        <v>0.01705382400208084</v>
+        <v>0.4058201825561418</v>
       </c>
       <c r="P14">
-        <v>0.01705382400208084</v>
+        <v>0.4060556068101174</v>
       </c>
       <c r="Q14">
-        <v>322.3709415446527</v>
+        <v>5654.823960004383</v>
       </c>
       <c r="R14">
-        <v>322.3709415446527</v>
+        <v>50893.41564003945</v>
       </c>
       <c r="S14">
-        <v>0.003938992147748209</v>
+        <v>0.05413802135545076</v>
       </c>
       <c r="T14">
-        <v>0.003938992147748209</v>
+        <v>0.05686621492854136</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>131.914372655243</v>
+        <v>86.95694233333334</v>
       </c>
       <c r="H15">
-        <v>131.914372655243</v>
+        <v>260.870827</v>
       </c>
       <c r="I15">
-        <v>0.2309741291611541</v>
+        <v>0.1334039648162674</v>
       </c>
       <c r="J15">
-        <v>0.2309741291611541</v>
+        <v>0.1400453878109693</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>51.2201576610693</v>
+        <v>91.48438500000002</v>
       </c>
       <c r="N15">
-        <v>51.2201576610693</v>
+        <v>274.453155</v>
       </c>
       <c r="O15">
-        <v>0.3574365144173148</v>
+        <v>0.5709075489100568</v>
       </c>
       <c r="P15">
-        <v>0.3574365144173148</v>
+        <v>0.5712387435858478</v>
       </c>
       <c r="Q15">
-        <v>6756.674965162595</v>
+        <v>7955.202390845468</v>
       </c>
       <c r="R15">
-        <v>6756.674965162595</v>
+        <v>71596.82151760921</v>
       </c>
       <c r="S15">
-        <v>0.08255858764793758</v>
+        <v>0.07616133056813867</v>
       </c>
       <c r="T15">
-        <v>0.08255858764793758</v>
+        <v>0.07999935137813091</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>131.914372655243</v>
+        <v>86.95694233333334</v>
       </c>
       <c r="H16">
-        <v>131.914372655243</v>
+        <v>260.870827</v>
       </c>
       <c r="I16">
-        <v>0.2309741291611541</v>
+        <v>0.1334039648162674</v>
       </c>
       <c r="J16">
-        <v>0.2309741291611541</v>
+        <v>0.1400453878109693</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>89.4103574859068</v>
+        <v>0.27872</v>
       </c>
       <c r="N16">
-        <v>89.4103574859068</v>
+        <v>0.55744</v>
       </c>
       <c r="O16">
-        <v>0.6239443217657096</v>
+        <v>0.001739349857707531</v>
       </c>
       <c r="P16">
-        <v>0.6239443217657096</v>
+        <v>0.001160239259135115</v>
       </c>
       <c r="Q16">
-        <v>11794.51121663441</v>
+        <v>24.23663896714667</v>
       </c>
       <c r="R16">
-        <v>11794.51121663441</v>
+        <v>145.41983380288</v>
       </c>
       <c r="S16">
-        <v>0.1441149963648817</v>
+        <v>0.0002320361672207952</v>
       </c>
       <c r="T16">
-        <v>0.1441149963648817</v>
+        <v>0.000162486156999089</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>131.914372655243</v>
+        <v>153.4727276666667</v>
       </c>
       <c r="H17">
-        <v>131.914372655243</v>
+        <v>460.418183</v>
       </c>
       <c r="I17">
-        <v>0.2309741291611541</v>
+        <v>0.2354483703373308</v>
       </c>
       <c r="J17">
-        <v>0.2309741291611541</v>
+        <v>0.2471700026214768</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.224311028331199</v>
+        <v>0.919382</v>
       </c>
       <c r="N17">
-        <v>0.224311028331199</v>
+        <v>2.758146</v>
       </c>
       <c r="O17">
-        <v>0.00156533981489493</v>
+        <v>0.005737395776689386</v>
       </c>
       <c r="P17">
-        <v>0.00156533981489493</v>
+        <v>0.005740724152602041</v>
       </c>
       <c r="Q17">
-        <v>29.58984858196256</v>
+        <v>141.1000633076353</v>
       </c>
       <c r="R17">
-        <v>29.58984858196256</v>
+        <v>1269.900569768718</v>
       </c>
       <c r="S17">
-        <v>0.0003615530005866385</v>
+        <v>0.0013508604856018</v>
       </c>
       <c r="T17">
-        <v>0.0003615530005866385</v>
+        <v>0.001418934803847822</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,57 +1526,57 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>70.8587687269232</v>
+        <v>153.4727276666667</v>
       </c>
       <c r="H18">
-        <v>70.8587687269232</v>
+        <v>460.418183</v>
       </c>
       <c r="I18">
-        <v>0.1240694404309265</v>
+        <v>0.2354483703373308</v>
       </c>
       <c r="J18">
-        <v>0.1240694404309265</v>
+        <v>0.2471700026214768</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.44378936923853</v>
+        <v>2.531134333333334</v>
       </c>
       <c r="N18">
-        <v>2.44378936923853</v>
+        <v>7.593403</v>
       </c>
       <c r="O18">
-        <v>0.01705382400208084</v>
+        <v>0.01579552289940435</v>
       </c>
       <c r="P18">
-        <v>0.01705382400208084</v>
+        <v>0.01580468619229758</v>
       </c>
       <c r="Q18">
-        <v>173.1639057321865</v>
+        <v>388.4600902274166</v>
       </c>
       <c r="R18">
-        <v>173.1639057321865</v>
+        <v>3496.140812046749</v>
       </c>
       <c r="S18">
-        <v>0.002115858401145673</v>
+        <v>0.003719030125290745</v>
       </c>
       <c r="T18">
-        <v>0.002115858401145673</v>
+        <v>0.003906444327581812</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>70.8587687269232</v>
+        <v>153.4727276666667</v>
       </c>
       <c r="H19">
-        <v>70.8587687269232</v>
+        <v>460.418183</v>
       </c>
       <c r="I19">
-        <v>0.1240694404309265</v>
+        <v>0.2354483703373308</v>
       </c>
       <c r="J19">
-        <v>0.1240694404309265</v>
+        <v>0.2471700026214768</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>51.2201576610693</v>
+        <v>65.03016100000001</v>
       </c>
       <c r="N19">
-        <v>51.2201576610693</v>
+        <v>195.090483</v>
       </c>
       <c r="O19">
-        <v>0.3574365144173148</v>
+        <v>0.4058201825561418</v>
       </c>
       <c r="P19">
-        <v>0.3574365144173148</v>
+        <v>0.4060556068101174</v>
       </c>
       <c r="Q19">
-        <v>3629.397305862253</v>
+        <v>9980.356189272488</v>
       </c>
       <c r="R19">
-        <v>3629.397305862253</v>
+        <v>89823.20570345239</v>
       </c>
       <c r="S19">
-        <v>0.04434694833333703</v>
+        <v>0.09554970063284166</v>
       </c>
       <c r="T19">
-        <v>0.04434694833333703</v>
+        <v>0.1003647653997221</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>70.8587687269232</v>
+        <v>153.4727276666667</v>
       </c>
       <c r="H20">
-        <v>70.8587687269232</v>
+        <v>460.418183</v>
       </c>
       <c r="I20">
-        <v>0.1240694404309265</v>
+        <v>0.2354483703373308</v>
       </c>
       <c r="J20">
-        <v>0.1240694404309265</v>
+        <v>0.2471700026214768</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>89.4103574859068</v>
+        <v>91.48438500000002</v>
       </c>
       <c r="N20">
-        <v>89.4103574859068</v>
+        <v>274.453155</v>
       </c>
       <c r="O20">
-        <v>0.6239443217657096</v>
+        <v>0.5709075489100568</v>
       </c>
       <c r="P20">
-        <v>0.6239443217657096</v>
+        <v>0.5712387435858478</v>
       </c>
       <c r="Q20">
-        <v>6335.507842885397</v>
+        <v>14040.35810485749</v>
       </c>
       <c r="R20">
-        <v>6335.507842885397</v>
+        <v>126363.2229437174</v>
       </c>
       <c r="S20">
-        <v>0.07741242286152551</v>
+        <v>0.1344192520041528</v>
       </c>
       <c r="T20">
-        <v>0.07741242286152551</v>
+        <v>0.1411930817496031</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>70.8587687269232</v>
+        <v>153.4727276666667</v>
       </c>
       <c r="H21">
-        <v>70.8587687269232</v>
+        <v>460.418183</v>
       </c>
       <c r="I21">
-        <v>0.1240694404309265</v>
+        <v>0.2354483703373308</v>
       </c>
       <c r="J21">
-        <v>0.1240694404309265</v>
+        <v>0.2471700026214768</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.224311028331199</v>
+        <v>0.27872</v>
       </c>
       <c r="N21">
-        <v>0.224311028331199</v>
+        <v>0.55744</v>
       </c>
       <c r="O21">
-        <v>0.00156533981489493</v>
+        <v>0.001739349857707531</v>
       </c>
       <c r="P21">
-        <v>0.00156533981489493</v>
+        <v>0.001160239259135115</v>
       </c>
       <c r="Q21">
-        <v>15.89440327941875</v>
+        <v>42.77591865525334</v>
       </c>
       <c r="R21">
-        <v>15.89440327941875</v>
+        <v>256.65551193152</v>
       </c>
       <c r="S21">
-        <v>0.0001942108349182639</v>
+        <v>0.0004095270894437064</v>
       </c>
       <c r="T21">
-        <v>0.0001942108349182639</v>
+        <v>0.0002867763407219668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>92.73616000000001</v>
+      </c>
+      <c r="H22">
+        <v>185.47232</v>
+      </c>
+      <c r="I22">
+        <v>0.14227008326043</v>
+      </c>
+      <c r="J22">
+        <v>0.09956859983657813</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.919382</v>
+      </c>
+      <c r="N22">
+        <v>2.758146</v>
+      </c>
+      <c r="O22">
+        <v>0.005737395776689386</v>
+      </c>
+      <c r="P22">
+        <v>0.005740724152602041</v>
+      </c>
+      <c r="Q22">
+        <v>85.25995625312001</v>
+      </c>
+      <c r="R22">
+        <v>511.5597375187201</v>
+      </c>
+      <c r="S22">
+        <v>0.0008162597748476384</v>
+      </c>
+      <c r="T22">
+        <v>0.0005715958659226118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>92.73616000000001</v>
+      </c>
+      <c r="H23">
+        <v>185.47232</v>
+      </c>
+      <c r="I23">
+        <v>0.14227008326043</v>
+      </c>
+      <c r="J23">
+        <v>0.09956859983657813</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.531134333333334</v>
+      </c>
+      <c r="N23">
+        <v>7.593403</v>
+      </c>
+      <c r="O23">
+        <v>0.01579552289940435</v>
+      </c>
+      <c r="P23">
+        <v>0.01580468619229758</v>
+      </c>
+      <c r="Q23">
+        <v>234.7276785174934</v>
+      </c>
+      <c r="R23">
+        <v>1408.36607110496</v>
+      </c>
+      <c r="S23">
+        <v>0.002247230358040286</v>
+      </c>
+      <c r="T23">
+        <v>0.001573650475023569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>92.73616000000001</v>
+      </c>
+      <c r="H24">
+        <v>185.47232</v>
+      </c>
+      <c r="I24">
+        <v>0.14227008326043</v>
+      </c>
+      <c r="J24">
+        <v>0.09956859983657813</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>65.03016100000001</v>
+      </c>
+      <c r="N24">
+        <v>195.090483</v>
+      </c>
+      <c r="O24">
+        <v>0.4058201825561418</v>
+      </c>
+      <c r="P24">
+        <v>0.4060556068101174</v>
+      </c>
+      <c r="Q24">
+        <v>6030.647415321761</v>
+      </c>
+      <c r="R24">
+        <v>36183.88449193056</v>
+      </c>
+      <c r="S24">
+        <v>0.0577360711610252</v>
+      </c>
+      <c r="T24">
+        <v>0.04043038822587549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>92.73616000000001</v>
+      </c>
+      <c r="H25">
+        <v>185.47232</v>
+      </c>
+      <c r="I25">
+        <v>0.14227008326043</v>
+      </c>
+      <c r="J25">
+        <v>0.09956859983657813</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>91.48438500000002</v>
+      </c>
+      <c r="N25">
+        <v>274.453155</v>
+      </c>
+      <c r="O25">
+        <v>0.5709075489100568</v>
+      </c>
+      <c r="P25">
+        <v>0.5712387435858478</v>
+      </c>
+      <c r="Q25">
+        <v>8483.910564861602</v>
+      </c>
+      <c r="R25">
+        <v>50903.46338916961</v>
+      </c>
+      <c r="S25">
+        <v>0.0812230645174418</v>
+      </c>
+      <c r="T25">
+        <v>0.05687744187124894</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>92.73616000000001</v>
+      </c>
+      <c r="H26">
+        <v>185.47232</v>
+      </c>
+      <c r="I26">
+        <v>0.14227008326043</v>
+      </c>
+      <c r="J26">
+        <v>0.09956859983657813</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.27872</v>
+      </c>
+      <c r="N26">
+        <v>0.55744</v>
+      </c>
+      <c r="O26">
+        <v>0.001739349857707531</v>
+      </c>
+      <c r="P26">
+        <v>0.001160239259135115</v>
+      </c>
+      <c r="Q26">
+        <v>25.84742251520001</v>
+      </c>
+      <c r="R26">
+        <v>103.3896900608</v>
+      </c>
+      <c r="S26">
+        <v>0.0002474574490750676</v>
+      </c>
+      <c r="T26">
+        <v>0.0001155233985075122</v>
       </c>
     </row>
   </sheetData>
